--- a/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/assays/SamplePreparation_Heat/isa.assay.xlsx
+++ b/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/assays/SamplePreparation_Heat/isa.assay.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4435F9B-3D3C-4355-BEE7-65F268E401D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B47DD88-9CD7-4B11-A82C-44386692DD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3380" yWindow="3380" windowWidth="18000" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="isa_assay" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <t>ASSAY</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>best</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C3_prep</t>
   </si>
 </sst>
 </file>
@@ -228,9 +234,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,49 +677,49 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -722,62 +727,62 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -792,41 +797,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520C143D-7441-4DDD-B9BB-62406CD33B08}">
   <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="33.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="37.81640625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7265625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="37.81640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7265625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="37.81640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="21.7265625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="27" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="30" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="33" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="40" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.42578125" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="27.42578125" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30.7265625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="37.81640625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="37.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.7265625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="37.81640625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.453125" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="27.453125" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -906,218 +911,86 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1">
+      <c r="Q2">
         <v>7</v>
       </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1" t="s">
+      <c r="W2" t="s">
         <v>58</v>
       </c>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
       <c r="Z2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1">
+      <c r="Q3">
         <v>7</v>
       </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1" t="s">
+      <c r="W3" t="s">
         <v>58</v>
       </c>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
       <c r="Z3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1">
+        <v>59</v>
+      </c>
+      <c r="Q4">
         <v>7</v>
       </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1" t="s">
+      <c r="W4" t="s">
         <v>58</v>
       </c>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
       <c r="Z4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1">
+      <c r="Q5">
         <v>7</v>
       </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1" t="s">
+      <c r="W5" t="s">
         <v>58</v>
       </c>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
       <c r="Z5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1">
+      <c r="Q6">
         <v>7</v>
       </c>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1" t="s">
+      <c r="W6" t="s">
         <v>58</v>
       </c>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
       <c r="Z6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1">
+      <c r="Q7">
         <v>7</v>
       </c>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1" t="s">
+      <c r="W7" t="s">
         <v>58</v>
       </c>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
       <c r="Z7" t="s">
         <v>32</v>
       </c>

--- a/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/assays/SamplePreparation_Heat/isa.assay.xlsx
+++ b/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/assays/SamplePreparation_Heat/isa.assay.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B47DD88-9CD7-4B11-A82C-44386692DD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7449DDB3-8979-4B83-BBFC-5F6FB5841249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="3380" windowWidth="18000" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="isa_assay" sheetId="1" r:id="rId1"/>
@@ -84,12 +84,6 @@
     <t>Assay Person Roles Term Source REF</t>
   </si>
   <si>
-    <t>Source Name</t>
-  </si>
-  <si>
-    <t>Sample Name</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
@@ -199,6 +193,12 @@
   </si>
   <si>
     <t>C3_prep</t>
+  </si>
+  <si>
+    <t>Output [Sample Name]</t>
+  </si>
+  <si>
+    <t>Input [Sample Name]</t>
   </si>
 </sst>
 </file>
@@ -327,7 +327,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AB59A60-0FF4-4952-B1F9-A72D4946F6BB}" name="annotationTableStrongDog76" displayName="annotationTableStrongDog76" ref="A1:Z7" totalsRowShown="0">
   <autoFilter ref="A1:Z7" xr:uid="{8AB59A60-0FF4-4952-B1F9-A72D4946F6BB}"/>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{BB29E7D3-1035-4E51-96C2-9401804193C4}" name="Source Name"/>
+    <tableColumn id="1" xr3:uid="{BB29E7D3-1035-4E51-96C2-9401804193C4}" name="Input [Sample Name]"/>
     <tableColumn id="3" xr3:uid="{74E1A7DC-5689-474D-8349-93C968D496A5}" name="Parameter [cleavage agent name]"/>
     <tableColumn id="4" xr3:uid="{734A2883-5A7E-43F9-9987-8E619E11F096}" name="Term Source REF (MS:1001045)" dataDxfId="22"/>
     <tableColumn id="5" xr3:uid="{ABE52428-26B6-4255-A249-CF3F6EA04DE1}" name="Term Accession Number (MS:1001045)" dataDxfId="21"/>
@@ -352,16 +352,16 @@
     <tableColumn id="24" xr3:uid="{E41DA338-1A3E-48AC-A735-1B94A5AE200F}" name="Parameter [protein column]" dataDxfId="2"/>
     <tableColumn id="25" xr3:uid="{03965B2E-FE85-4239-8501-0B334BA97D17}" name="Term Source REF () " dataDxfId="1"/>
     <tableColumn id="26" xr3:uid="{D99FEA68-58B8-498A-961F-4D1F99613A27}" name="Term Accession Number () " dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{E8599316-F232-47F3-8D39-0C763128544F}" name="Sample Name"/>
+    <tableColumn id="2" xr3:uid="{E8599316-F232-47F3-8D39-0C763128544F}" name="Output [Sample Name]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -399,7 +399,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -505,7 +505,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -647,7 +647,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -677,49 +677,49 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -727,62 +727,62 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -797,202 +797,202 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520C143D-7441-4DDD-B9BB-62406CD33B08}">
   <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Z4" sqref="Z4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7265625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="37.81640625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7265625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="37.81640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7265625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="37.81640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="37.85546875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="27" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="30" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="33" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="40" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="30.7265625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="37.81640625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30.7265625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="37.81640625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.453125" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="27.453125" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30.7109375" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="37.85546875" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.7109375" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="37.85546875" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.42578125" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="27.42578125" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T1" t="s">
-        <v>52</v>
-      </c>
-      <c r="U1" t="s">
-        <v>53</v>
-      </c>
-      <c r="V1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>24</v>
       </c>
       <c r="Q2">
         <v>7</v>
       </c>
       <c r="W2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Z2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q3">
         <v>7</v>
       </c>
       <c r="W3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Z3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q4">
         <v>7</v>
       </c>
       <c r="W4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z4" t="s">
         <v>58</v>
       </c>
-      <c r="Z4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q5">
         <v>7</v>
       </c>
       <c r="W5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Z5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q6">
         <v>7</v>
       </c>
       <c r="W6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Z6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q7">
         <v>7</v>
       </c>
       <c r="W7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Z7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/assays/SamplePreparation_Heat/isa.assay.xlsx
+++ b/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/assays/SamplePreparation_Heat/isa.assay.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7449DDB3-8979-4B83-BBFC-5F6FB5841249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A0C60B-E80A-4DEC-BB42-6BB0C8AD2A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="isa_assay" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>ASSAY</t>
   </si>
@@ -114,51 +114,6 @@
     <t>H1_prep</t>
   </si>
   <si>
-    <t>Parameter [cleavage agent name]</t>
-  </si>
-  <si>
-    <t>Term Source REF (MS:1001045)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MS:1001045)</t>
-  </si>
-  <si>
-    <t>Parameter [molecule]</t>
-  </si>
-  <si>
-    <t>Term Source REF (MS:1000859)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MS:1000859)</t>
-  </si>
-  <si>
-    <t>Parameter [sample state]</t>
-  </si>
-  <si>
-    <t>Term Source REF (MS:1000003)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MS:1000003)</t>
-  </si>
-  <si>
-    <t>Parameter [staining]</t>
-  </si>
-  <si>
-    <t>Term Source REF ()</t>
-  </si>
-  <si>
-    <t>Term Accession Number ()</t>
-  </si>
-  <si>
-    <t>Parameter [extraction buffer]</t>
-  </si>
-  <si>
-    <t>Term Source REF (DPBO:0000050)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (DPBO:0000050)</t>
-  </si>
-  <si>
     <t>Parameter [pH]</t>
   </si>
   <si>
@@ -166,27 +121,6 @@
   </si>
   <si>
     <t>Term Accession Number (UO:0000196)</t>
-  </si>
-  <si>
-    <t>Parameter [sample pre-fractionation]</t>
-  </si>
-  <si>
-    <t>Term Source REF (MS:1002493)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MS:1002493)</t>
-  </si>
-  <si>
-    <t>Parameter [protein column]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term Source REF () </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term Accession Number () </t>
-  </si>
-  <si>
-    <t>best</t>
   </si>
   <si>
     <t>C3</t>
@@ -240,67 +174,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -324,34 +198,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AB59A60-0FF4-4952-B1F9-A72D4946F6BB}" name="annotationTableStrongDog76" displayName="annotationTableStrongDog76" ref="A1:Z7" totalsRowShown="0">
-  <autoFilter ref="A1:Z7" xr:uid="{8AB59A60-0FF4-4952-B1F9-A72D4946F6BB}"/>
-  <tableColumns count="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AB59A60-0FF4-4952-B1F9-A72D4946F6BB}" name="annotationTableStrongDog76" displayName="annotationTableStrongDog76" ref="A1:E7" totalsRowShown="0">
+  <autoFilter ref="A1:E7" xr:uid="{8AB59A60-0FF4-4952-B1F9-A72D4946F6BB}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{BB29E7D3-1035-4E51-96C2-9401804193C4}" name="Input [Sample Name]"/>
-    <tableColumn id="3" xr3:uid="{74E1A7DC-5689-474D-8349-93C968D496A5}" name="Parameter [cleavage agent name]"/>
-    <tableColumn id="4" xr3:uid="{734A2883-5A7E-43F9-9987-8E619E11F096}" name="Term Source REF (MS:1001045)" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{ABE52428-26B6-4255-A249-CF3F6EA04DE1}" name="Term Accession Number (MS:1001045)" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{26201A9E-4ADA-4E8B-B88B-376EE3805CC2}" name="Parameter [molecule]" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{8304449F-8D1E-4F7F-987B-565968D13BA8}" name="Term Source REF (MS:1000859)" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{C6967B31-543F-4EF9-8CD2-697605A7E959}" name="Term Accession Number (MS:1000859)" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{CB9AD0D7-6DD9-4CD0-9B32-459F0A66B273}" name="Parameter [sample state]" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{7E615814-3E1F-483D-9466-7A1941C27D4F}" name="Term Source REF (MS:1000003)" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{1497D5FB-64FA-4D23-B10A-2655CE963A64}" name="Term Accession Number (MS:1000003)" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{567302E2-64B5-42E9-90DE-9444EF8028EC}" name="Parameter [staining]" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{3F09F681-3C9A-42B1-AA5E-D4C57DF10A81}" name="Term Source REF ()" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{03AB588F-91AB-4A2B-8644-D3ECF7EBC6C4}" name="Term Accession Number ()" dataDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{172703E4-6C7A-42AC-9EF1-4DB0B4847207}" name="Parameter [extraction buffer]" dataDxfId="11"/>
-    <tableColumn id="16" xr3:uid="{CDCA1A9E-C911-454C-97E1-C36DF65BCF00}" name="Term Source REF (DPBO:0000050)" dataDxfId="10"/>
-    <tableColumn id="17" xr3:uid="{66BB4262-3873-4005-B34F-F1B4D2F8744A}" name="Term Accession Number (DPBO:0000050)" dataDxfId="9"/>
-    <tableColumn id="18" xr3:uid="{1D834DFC-76A8-4BAD-9886-DC9F9C5E4DDD}" name="Parameter [pH]" dataDxfId="8"/>
-    <tableColumn id="19" xr3:uid="{FE21ED16-0660-4F95-BA15-B2C416618F4E}" name="Term Source REF (UO:0000196)" dataDxfId="7"/>
-    <tableColumn id="20" xr3:uid="{CCB86B79-EF39-4FFB-9F5C-4E8D82820046}" name="Term Accession Number (UO:0000196)" dataDxfId="6"/>
-    <tableColumn id="21" xr3:uid="{6EFB12AD-5662-4CC7-8643-118E19E68F62}" name="Parameter [sample pre-fractionation]" dataDxfId="5"/>
-    <tableColumn id="22" xr3:uid="{00E3AB89-AA64-4252-9539-C540DE6EF904}" name="Term Source REF (MS:1002493)" dataDxfId="4"/>
-    <tableColumn id="23" xr3:uid="{08169A51-5666-46CD-B07E-E3580AD9CF9F}" name="Term Accession Number (MS:1002493)" dataDxfId="3"/>
-    <tableColumn id="24" xr3:uid="{E41DA338-1A3E-48AC-A735-1B94A5AE200F}" name="Parameter [protein column]" dataDxfId="2"/>
-    <tableColumn id="25" xr3:uid="{03965B2E-FE85-4239-8501-0B334BA97D17}" name="Term Source REF () " dataDxfId="1"/>
-    <tableColumn id="26" xr3:uid="{D99FEA68-58B8-498A-961F-4D1F99613A27}" name="Term Accession Number () " dataDxfId="0"/>
+    <tableColumn id="18" xr3:uid="{1D834DFC-76A8-4BAD-9886-DC9F9C5E4DDD}" name="Parameter [pH]" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{FE21ED16-0660-4F95-BA15-B2C416618F4E}" name="Term Source REF (UO:0000196)" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{CCB86B79-EF39-4FFB-9F5C-4E8D82820046}" name="Term Accession Number (UO:0000196)" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{E8599316-F232-47F3-8D39-0C763128544F}" name="Output [Sample Name]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -677,49 +530,49 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -727,62 +580,62 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -795,45 +648,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520C143D-7441-4DDD-B9BB-62406CD33B08}">
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="27" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="30" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="40" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.42578125" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="27.42578125" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" customWidth="1"/>
+    <col min="4" max="4" width="37.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>32</v>
@@ -845,153 +677,72 @@
         <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T1" t="s">
-        <v>50</v>
-      </c>
-      <c r="U1" t="s">
-        <v>51</v>
-      </c>
-      <c r="V1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W1" t="s">
-        <v>53</v>
-      </c>
-      <c r="X1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="Q2">
+      <c r="B2">
         <v>7</v>
       </c>
-      <c r="W2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="E2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="Q3">
+      <c r="B3">
         <v>7</v>
       </c>
-      <c r="W3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z3" t="s">
+      <c r="E3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q4">
+        <v>35</v>
+      </c>
+      <c r="B4">
         <v>7</v>
       </c>
-      <c r="W4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="Q5">
+      <c r="B5">
         <v>7</v>
       </c>
-      <c r="W5" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z5" t="s">
+      <c r="E5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="Q6">
+      <c r="B6">
         <v>7</v>
       </c>
-      <c r="W6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z6" t="s">
+      <c r="E6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="Q7">
+      <c r="B7">
         <v>7</v>
       </c>
-      <c r="W7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z7" t="s">
+      <c r="E7" t="s">
         <v>30</v>
       </c>
     </row>

--- a/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/assays/SamplePreparation_Heat/isa.assay.xlsx
+++ b/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/assays/SamplePreparation_Heat/isa.assay.xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A0C60B-E80A-4DEC-BB42-6BB0C8AD2A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="isa_assay" sheetId="1" r:id="rId1"/>
-    <sheet name="SamplePrep" sheetId="2" r:id="rId2"/>
+    <sheet sheetId="1" name="isa_assay" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="SamplePrep" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>ASSAY</t>
   </si>
@@ -84,68 +80,74 @@
     <t>Assay Person Roles Term Source REF</t>
   </si>
   <si>
+    <t>Input [Sample Name]</t>
+  </si>
+  <si>
+    <t>Parameter [pH]</t>
+  </si>
+  <si>
+    <t>Term Source REF (UO:0000196)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (UO:0000196)</t>
+  </si>
+  <si>
+    <t>Output [Sample Name]</t>
+  </si>
+  <si>
     <t>C1</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>C1_prep</t>
+  </si>
+  <si>
     <t>C2</t>
   </si>
   <si>
+    <t>C2_prep</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C3_prep</t>
+  </si>
+  <si>
     <t>H1</t>
   </si>
   <si>
+    <t>H1_prep</t>
+  </si>
+  <si>
     <t>H2</t>
   </si>
   <si>
+    <t>H2_prep</t>
+  </si>
+  <si>
     <t>H3</t>
   </si>
   <si>
-    <t>C1_prep</t>
-  </si>
-  <si>
-    <t>C2_prep</t>
-  </si>
-  <si>
-    <t>H2_prep</t>
-  </si>
-  <si>
     <t>H3_prep</t>
-  </si>
-  <si>
-    <t>H1_prep</t>
-  </si>
-  <si>
-    <t>Parameter [pH]</t>
-  </si>
-  <si>
-    <t>Term Source REF (UO:0000196)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (UO:0000196)</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C3_prep</t>
-  </si>
-  <si>
-    <t>Output [Sample Name]</t>
-  </si>
-  <si>
-    <t>Input [Sample Name]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -174,17 +176,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -198,23 +190,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AB59A60-0FF4-4952-B1F9-A72D4946F6BB}" name="annotationTableStrongDog76" displayName="annotationTableStrongDog76" ref="A1:E7" totalsRowShown="0">
-  <autoFilter ref="A1:E7" xr:uid="{8AB59A60-0FF4-4952-B1F9-A72D4946F6BB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:E7" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:E7">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BB29E7D3-1035-4E51-96C2-9401804193C4}" name="Input [Sample Name]"/>
-    <tableColumn id="18" xr3:uid="{1D834DFC-76A8-4BAD-9886-DC9F9C5E4DDD}" name="Parameter [pH]" dataDxfId="2"/>
-    <tableColumn id="19" xr3:uid="{FE21ED16-0660-4F95-BA15-B2C416618F4E}" name="Term Source REF (UO:0000196)" dataDxfId="1"/>
-    <tableColumn id="20" xr3:uid="{CCB86B79-EF39-4FFB-9F5C-4E8D82820046}" name="Term Accession Number (UO:0000196)" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{E8599316-F232-47F3-8D39-0C763128544F}" name="Output [Sample Name]"/>
+    <tableColumn id="1" name="Input [Sample Name]" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Parameter [pH]" totalsRowFunction="none"/>
+    <tableColumn id="3" name="Term Source REF (UO:0000196)" totalsRowFunction="none"/>
+    <tableColumn id="4" name="Term Accession Number (UO:0000196)" totalsRowFunction="none"/>
+    <tableColumn id="5" name="Output [Sample Name]" totalsRowFunction="none"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -252,7 +250,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -358,7 +356,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -500,79 +498,58 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
-<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
-<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="2">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </wetp:taskpane>
-</wetp:taskpanes>
-</file>
-
-<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{57AF2234-07BC-49F7-A9A2-4D3DD7C8D08C}">
-  <we:reference id="5d6f5462-3401-48ec-9406-d12882e9ad83" version="0.8.0.0" store="\\DESKTOP-GGDHOH8\nfdi_manifest_User" storeType="Filesystem"/>
-  <we:alternateReferences/>
-  <we:properties/>
-  <we:bindings/>
-  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</we:webextension>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -580,174 +557,199 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520C143D-7441-4DDD-B9BB-62406CD33B08}">
-  <dimension ref="A1:Y7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7265625" customWidth="1"/>
-    <col min="4" max="4" width="37.81640625" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
-  </cols>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
